--- a/stats/Zawodnicy_CSGO - Copy.xlsx
+++ b/stats/Zawodnicy_CSGO - Copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I9\Documents\GitHub\PrivateMusicBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I9\Documents\GitHub\PrivateMusicBot\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DAD4DD-85E5-494E-9FC4-D3BF08D5EF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9B9752-3C5B-46C2-B45F-92061BD811D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="1650" windowWidth="30915" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="1995" windowWidth="30915" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -174,9 +174,6 @@
     <t>_Franiuuu_</t>
   </si>
   <si>
-    <t>Extr3m0</t>
-  </si>
-  <si>
     <t>Krzycho2000</t>
   </si>
   <si>
@@ -189,12 +186,6 @@
     <t>Bomble Bombla Juniora-B-BJ</t>
   </si>
   <si>
-    <t>adax_io</t>
-  </si>
-  <si>
-    <t>l_like_Ikea</t>
-  </si>
-  <si>
     <t>WPMEKobonga</t>
   </si>
   <si>
@@ -333,12 +324,6 @@
     <t>getkozaur</t>
   </si>
   <si>
-    <t>Luxy</t>
-  </si>
-  <si>
-    <t>guma durex</t>
-  </si>
-  <si>
     <t>majkel_MP3</t>
   </si>
   <si>
@@ -615,18 +600,12 @@
     <t>Profanacja</t>
   </si>
   <si>
-    <t>endoJD</t>
-  </si>
-  <si>
     <t>GumaOrb1t</t>
   </si>
   <si>
     <t>MANTUUUUUUUU</t>
   </si>
   <si>
-    <t>Krychaa_</t>
-  </si>
-  <si>
     <t>SPKILL</t>
   </si>
   <si>
@@ -784,6 +763,27 @@
   </si>
   <si>
     <t>_Vojtaz_</t>
+  </si>
+  <si>
+    <t>Extr3m0_</t>
+  </si>
+  <si>
+    <t>__LUXY__</t>
+  </si>
+  <si>
+    <t>guma_durex</t>
+  </si>
+  <si>
+    <t>krychaa_</t>
+  </si>
+  <si>
+    <t>Antonix1</t>
+  </si>
+  <si>
+    <t>adix_io</t>
+  </si>
+  <si>
+    <t>AdrianxGame</t>
   </si>
 </sst>
 </file>
@@ -1383,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2099,7 +2099,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
@@ -2171,7 +2171,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
@@ -2243,7 +2243,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
@@ -2315,7 +2315,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="14" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
@@ -2456,10 +2456,10 @@
     </row>
     <row r="15" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
@@ -2528,10 +2528,10 @@
     </row>
     <row r="16" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>50</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>53</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
@@ -2600,10 +2600,10 @@
     </row>
     <row r="17" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
@@ -2672,10 +2672,10 @@
     </row>
     <row r="18" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="19" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
@@ -2816,10 +2816,10 @@
     </row>
     <row r="20" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
@@ -2888,10 +2888,10 @@
     </row>
     <row r="21" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>56</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>59</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
@@ -2960,10 +2960,10 @@
     </row>
     <row r="22" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -3032,10 +3032,10 @@
     </row>
     <row r="23" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
@@ -3104,10 +3104,10 @@
     </row>
     <row r="24" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="25" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
@@ -3248,10 +3248,10 @@
     </row>
     <row r="26" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="27" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>63</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
@@ -3392,10 +3392,10 @@
     </row>
     <row r="28" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
@@ -3464,10 +3464,10 @@
     </row>
     <row r="29" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="30" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="31" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
@@ -3680,10 +3680,10 @@
     </row>
     <row r="32" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="33" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
@@ -3824,10 +3824,10 @@
     </row>
     <row r="34" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>73</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" ref="C34:C65" si="4">G34+J34+M34+P34+S34+V34+Y34+AB34+AE34+AH34</f>
@@ -3896,10 +3896,10 @@
     </row>
     <row r="35" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="4"/>
@@ -3968,10 +3968,10 @@
     </row>
     <row r="36" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="4"/>
@@ -4040,10 +4040,10 @@
     </row>
     <row r="37" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="4"/>
@@ -4112,10 +4112,10 @@
     </row>
     <row r="38" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="4"/>
@@ -4184,10 +4184,10 @@
     </row>
     <row r="39" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="31" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>79</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="4"/>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="40" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="4"/>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="41" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="4"/>
@@ -4400,10 +4400,10 @@
     </row>
     <row r="42" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="4"/>
@@ -4472,10 +4472,10 @@
     </row>
     <row r="43" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" si="4"/>
@@ -4544,10 +4544,10 @@
     </row>
     <row r="44" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44" s="5">
         <f t="shared" si="4"/>
@@ -4616,10 +4616,10 @@
     </row>
     <row r="45" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>86</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="4"/>
@@ -4688,10 +4688,10 @@
     </row>
     <row r="46" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C46" s="5">
         <f t="shared" si="4"/>
@@ -4760,10 +4760,10 @@
     </row>
     <row r="47" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="4"/>
@@ -4832,10 +4832,10 @@
     </row>
     <row r="48" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="4"/>
@@ -4904,10 +4904,10 @@
     </row>
     <row r="49" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="4"/>
@@ -4976,10 +4976,10 @@
     </row>
     <row r="50" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="4"/>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="51" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="31" t="s">
         <v>90</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>93</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="4"/>
@@ -5120,10 +5120,10 @@
     </row>
     <row r="52" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="4"/>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="53" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C53" s="5">
         <f t="shared" si="4"/>
@@ -5264,10 +5264,10 @@
     </row>
     <row r="54" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="4"/>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="55" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="4"/>
@@ -5408,10 +5408,10 @@
     </row>
     <row r="56" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="4"/>
@@ -5480,10 +5480,10 @@
     </row>
     <row r="57" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="4"/>
@@ -5552,10 +5552,10 @@
     </row>
     <row r="58" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C58" s="5">
         <f t="shared" si="4"/>
@@ -5624,10 +5624,10 @@
     </row>
     <row r="59" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="4"/>
@@ -5696,10 +5696,10 @@
     </row>
     <row r="60" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="4"/>
@@ -5768,10 +5768,10 @@
     </row>
     <row r="61" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C61" s="5">
         <f t="shared" si="4"/>
@@ -5840,10 +5840,10 @@
     </row>
     <row r="62" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C62" s="5">
         <f t="shared" si="4"/>
@@ -5912,10 +5912,10 @@
     </row>
     <row r="63" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C63" s="5">
         <f t="shared" si="4"/>
@@ -5984,10 +5984,10 @@
     </row>
     <row r="64" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C64" s="5">
         <f t="shared" si="4"/>
@@ -6056,10 +6056,10 @@
     </row>
     <row r="65" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="31" t="s">
         <v>104</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>109</v>
       </c>
       <c r="C65" s="5">
         <f t="shared" si="4"/>
@@ -6128,10 +6128,10 @@
     </row>
     <row r="66" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" ref="C66:C97" si="8">G66+J66+M66+P66+S66+V66+Y66+AB66+AE66+AH66</f>
@@ -6200,10 +6200,10 @@
     </row>
     <row r="67" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C67" s="5">
         <f t="shared" si="8"/>
@@ -6272,10 +6272,10 @@
     </row>
     <row r="68" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C68" s="5">
         <f t="shared" si="8"/>
@@ -6344,10 +6344,10 @@
     </row>
     <row r="69" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C69" s="5">
         <f t="shared" si="8"/>
@@ -6416,10 +6416,10 @@
     </row>
     <row r="70" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C70" s="5">
         <f t="shared" si="8"/>
@@ -6488,10 +6488,10 @@
     </row>
     <row r="71" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="31" t="s">
         <v>111</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>116</v>
       </c>
       <c r="C71" s="5">
         <f t="shared" si="8"/>
@@ -6560,10 +6560,10 @@
     </row>
     <row r="72" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C72" s="5">
         <f t="shared" si="8"/>
@@ -6632,10 +6632,10 @@
     </row>
     <row r="73" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C73" s="5">
         <f t="shared" si="8"/>
@@ -6704,10 +6704,10 @@
     </row>
     <row r="74" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C74" s="5">
         <f t="shared" si="8"/>
@@ -6776,10 +6776,10 @@
     </row>
     <row r="75" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C75" s="5">
         <f t="shared" si="8"/>
@@ -6848,10 +6848,10 @@
     </row>
     <row r="76" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C76" s="5">
         <f t="shared" si="8"/>
@@ -6920,10 +6920,10 @@
     </row>
     <row r="77" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C77" s="5">
         <f t="shared" si="8"/>
@@ -6992,10 +6992,10 @@
     </row>
     <row r="78" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="31" t="s">
         <v>118</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>123</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="8"/>
@@ -7064,10 +7064,10 @@
     </row>
     <row r="79" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C79" s="5">
         <f t="shared" si="8"/>
@@ -7136,10 +7136,10 @@
     </row>
     <row r="80" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="8"/>
@@ -7208,10 +7208,10 @@
     </row>
     <row r="81" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="8"/>
@@ -7280,10 +7280,10 @@
     </row>
     <row r="82" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="8"/>
@@ -7352,10 +7352,10 @@
     </row>
     <row r="83" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="31" t="s">
         <v>124</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>129</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="8"/>
@@ -7424,10 +7424,10 @@
     </row>
     <row r="84" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="8"/>
@@ -7496,10 +7496,10 @@
     </row>
     <row r="85" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="8"/>
@@ -7568,10 +7568,10 @@
     </row>
     <row r="86" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="8"/>
@@ -7640,10 +7640,10 @@
     </row>
     <row r="87" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C87" s="5">
         <f t="shared" si="8"/>
@@ -7712,10 +7712,10 @@
     </row>
     <row r="88" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="8"/>
@@ -7784,10 +7784,10 @@
     </row>
     <row r="89" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="31" t="s">
         <v>131</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>136</v>
       </c>
       <c r="C89" s="5">
         <f t="shared" si="8"/>
@@ -7856,10 +7856,10 @@
     </row>
     <row r="90" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="8"/>
@@ -7928,10 +7928,10 @@
     </row>
     <row r="91" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C91" s="5">
         <f t="shared" si="8"/>
@@ -8000,10 +8000,10 @@
     </row>
     <row r="92" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C92" s="5">
         <f t="shared" si="8"/>
@@ -8072,10 +8072,10 @@
     </row>
     <row r="93" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C93" s="5">
         <f t="shared" si="8"/>
@@ -8144,10 +8144,10 @@
     </row>
     <row r="94" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C94" s="5">
         <f t="shared" si="8"/>
@@ -8216,10 +8216,10 @@
     </row>
     <row r="95" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="31" t="s">
         <v>138</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>143</v>
       </c>
       <c r="C95" s="5">
         <f t="shared" si="8"/>
@@ -8288,10 +8288,10 @@
     </row>
     <row r="96" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C96" s="5">
         <f t="shared" si="8"/>
@@ -8360,10 +8360,10 @@
     </row>
     <row r="97" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C97" s="5">
         <f t="shared" si="8"/>
@@ -8432,10 +8432,10 @@
     </row>
     <row r="98" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C98" s="5">
         <f t="shared" ref="C98:C129" si="12">G98+J98+M98+P98+S98+V98+Y98+AB98+AE98+AH98</f>
@@ -8504,10 +8504,10 @@
     </row>
     <row r="99" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C99" s="5">
         <f t="shared" si="12"/>
@@ -8576,10 +8576,10 @@
     </row>
     <row r="100" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C100" s="5">
         <f t="shared" si="12"/>
@@ -8648,10 +8648,10 @@
     </row>
     <row r="101" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" s="31" t="s">
         <v>145</v>
-      </c>
-      <c r="B101" s="31" t="s">
-        <v>150</v>
       </c>
       <c r="C101" s="5">
         <f t="shared" si="12"/>
@@ -8720,10 +8720,10 @@
     </row>
     <row r="102" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C102" s="5">
         <f t="shared" si="12"/>
@@ -8792,10 +8792,10 @@
     </row>
     <row r="103" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C103" s="5">
         <f t="shared" si="12"/>
@@ -8864,10 +8864,10 @@
     </row>
     <row r="104" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C104" s="5">
         <f t="shared" si="12"/>
@@ -8936,10 +8936,10 @@
     </row>
     <row r="105" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C105" s="5">
         <f t="shared" si="12"/>
@@ -9008,10 +9008,10 @@
     </row>
     <row r="106" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C106" s="5">
         <f t="shared" si="12"/>
@@ -9080,10 +9080,10 @@
     </row>
     <row r="107" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="31" t="s">
         <v>151</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>156</v>
       </c>
       <c r="C107" s="5">
         <f t="shared" si="12"/>
@@ -9152,10 +9152,10 @@
     </row>
     <row r="108" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C108" s="5">
         <f t="shared" si="12"/>
@@ -9224,10 +9224,10 @@
     </row>
     <row r="109" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C109" s="5">
         <f t="shared" si="12"/>
@@ -9296,10 +9296,10 @@
     </row>
     <row r="110" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C110" s="5">
         <f t="shared" si="12"/>
@@ -9368,10 +9368,10 @@
     </row>
     <row r="111" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C111" s="5">
         <f t="shared" si="12"/>
@@ -9440,10 +9440,10 @@
     </row>
     <row r="112" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" s="31" t="s">
         <v>157</v>
-      </c>
-      <c r="B112" s="31" t="s">
-        <v>162</v>
       </c>
       <c r="C112" s="5">
         <f t="shared" si="12"/>
@@ -9512,10 +9512,10 @@
     </row>
     <row r="113" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C113" s="5">
         <f t="shared" si="12"/>
@@ -9584,10 +9584,10 @@
     </row>
     <row r="114" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C114" s="5">
         <f t="shared" si="12"/>
@@ -9656,10 +9656,10 @@
     </row>
     <row r="115" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C115" s="5">
         <f t="shared" si="12"/>
@@ -9728,10 +9728,10 @@
     </row>
     <row r="116" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C116" s="5">
         <f t="shared" si="12"/>
@@ -9800,10 +9800,10 @@
     </row>
     <row r="117" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C117" s="5">
         <f t="shared" si="12"/>
@@ -9872,10 +9872,10 @@
     </row>
     <row r="118" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B118" s="31" t="s">
         <v>164</v>
-      </c>
-      <c r="B118" s="31" t="s">
-        <v>169</v>
       </c>
       <c r="C118" s="5">
         <f t="shared" si="12"/>
@@ -9944,10 +9944,10 @@
     </row>
     <row r="119" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C119" s="5">
         <f t="shared" si="12"/>
@@ -10016,10 +10016,10 @@
     </row>
     <row r="120" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="30" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C120" s="5">
         <f t="shared" si="12"/>
@@ -10088,10 +10088,10 @@
     </row>
     <row r="121" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="30" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C121" s="5">
         <f t="shared" si="12"/>
@@ -10160,10 +10160,10 @@
     </row>
     <row r="122" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="30" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C122" s="5">
         <f t="shared" si="12"/>
@@ -10232,10 +10232,10 @@
     </row>
     <row r="123" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="30" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C123" s="5">
         <f t="shared" si="12"/>
@@ -10304,10 +10304,10 @@
     </row>
     <row r="124" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B124" s="31" t="s">
         <v>171</v>
-      </c>
-      <c r="B124" s="31" t="s">
-        <v>176</v>
       </c>
       <c r="C124" s="5">
         <f t="shared" si="12"/>
@@ -10376,10 +10376,10 @@
     </row>
     <row r="125" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="30" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C125" s="5">
         <f t="shared" si="12"/>
@@ -10448,10 +10448,10 @@
     </row>
     <row r="126" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C126" s="5">
         <f t="shared" si="12"/>
@@ -10520,10 +10520,10 @@
     </row>
     <row r="127" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C127" s="5">
         <f t="shared" si="12"/>
@@ -10592,10 +10592,10 @@
     </row>
     <row r="128" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C128" s="5">
         <f t="shared" si="12"/>
@@ -10664,10 +10664,10 @@
     </row>
     <row r="129" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C129" s="5">
         <f t="shared" si="12"/>
@@ -10736,10 +10736,10 @@
     </row>
     <row r="130" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" s="31" t="s">
         <v>178</v>
-      </c>
-      <c r="B130" s="31" t="s">
-        <v>183</v>
       </c>
       <c r="C130" s="5">
         <f t="shared" ref="C130:C161" si="16">G130+J130+M130+P130+S130+V130+Y130+AB130+AE130+AH130</f>
@@ -10808,10 +10808,10 @@
     </row>
     <row r="131" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C131" s="5">
         <f t="shared" si="16"/>
@@ -10880,10 +10880,10 @@
     </row>
     <row r="132" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="30" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C132" s="5">
         <f t="shared" si="16"/>
@@ -10952,10 +10952,10 @@
     </row>
     <row r="133" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="30" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C133" s="5">
         <f t="shared" si="16"/>
@@ -11024,10 +11024,10 @@
     </row>
     <row r="134" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="30" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C134" s="5">
         <f t="shared" si="16"/>
@@ -11096,10 +11096,10 @@
     </row>
     <row r="135" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="30" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C135" s="5">
         <f t="shared" si="16"/>
@@ -11168,10 +11168,10 @@
     </row>
     <row r="136" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B136" s="31" t="s">
         <v>185</v>
-      </c>
-      <c r="B136" s="31" t="s">
-        <v>190</v>
       </c>
       <c r="C136" s="5">
         <f t="shared" si="16"/>
@@ -11240,10 +11240,10 @@
     </row>
     <row r="137" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="30" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C137" s="5">
         <f t="shared" si="16"/>
@@ -11312,10 +11312,10 @@
     </row>
     <row r="138" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="32" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="C138" s="5">
         <f t="shared" si="16"/>
@@ -11384,10 +11384,10 @@
     </row>
     <row r="139" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="32" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C139" s="5">
         <f t="shared" si="16"/>
@@ -11456,10 +11456,10 @@
     </row>
     <row r="140" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="32" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C140" s="5">
         <f t="shared" si="16"/>
@@ -11528,10 +11528,10 @@
     </row>
     <row r="141" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="32" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="C141" s="5">
         <f t="shared" si="16"/>
@@ -11600,10 +11600,10 @@
     </row>
     <row r="142" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="32" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C142" s="5">
         <f t="shared" si="16"/>
@@ -11672,10 +11672,10 @@
     </row>
     <row r="143" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="30" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C143" s="5">
         <f t="shared" si="16"/>
@@ -11744,10 +11744,10 @@
     </row>
     <row r="144" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="30" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C144" s="5">
         <f t="shared" si="16"/>
@@ -11816,10 +11816,10 @@
     </row>
     <row r="145" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="30" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C145" s="5">
         <f t="shared" si="16"/>
@@ -11888,10 +11888,10 @@
     </row>
     <row r="146" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="30" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C146" s="5">
         <f t="shared" si="16"/>
@@ -11960,10 +11960,10 @@
     </row>
     <row r="147" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="30" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C147" s="5">
         <f t="shared" si="16"/>
@@ -12032,10 +12032,10 @@
     </row>
     <row r="148" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="30" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C148" s="5">
         <f t="shared" si="16"/>
@@ -12104,10 +12104,10 @@
     </row>
     <row r="149" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C149" s="5">
         <f t="shared" si="16"/>
@@ -12176,10 +12176,10 @@
     </row>
     <row r="150" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C150" s="5">
         <f t="shared" si="16"/>
@@ -12248,10 +12248,10 @@
     </row>
     <row r="151" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C151" s="5">
         <f t="shared" si="16"/>
@@ -12320,10 +12320,10 @@
     </row>
     <row r="152" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C152" s="5">
         <f t="shared" si="16"/>
@@ -12392,10 +12392,10 @@
     </row>
     <row r="153" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C153" s="5">
         <f t="shared" si="16"/>
@@ -12464,10 +12464,10 @@
     </row>
     <row r="154" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C154" s="5">
         <f t="shared" si="16"/>
@@ -12536,10 +12536,10 @@
     </row>
     <row r="155" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="30" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C155" s="5">
         <f t="shared" si="16"/>
@@ -12608,10 +12608,10 @@
     </row>
     <row r="156" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="30" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C156" s="5">
         <f t="shared" si="16"/>
@@ -12680,10 +12680,10 @@
     </row>
     <row r="157" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="30" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C157" s="5">
         <f t="shared" si="16"/>
@@ -12752,10 +12752,10 @@
     </row>
     <row r="158" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="30" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C158" s="5">
         <f t="shared" si="16"/>
@@ -12824,10 +12824,10 @@
     </row>
     <row r="159" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="30" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C159" s="5">
         <f t="shared" si="16"/>
@@ -12896,10 +12896,10 @@
     </row>
     <row r="160" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="30" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C160" s="5">
         <f t="shared" si="16"/>
@@ -12968,10 +12968,10 @@
     </row>
     <row r="161" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="30" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C161" s="5">
         <f t="shared" si="16"/>
@@ -13040,10 +13040,10 @@
     </row>
     <row r="162" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="30" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C162" s="5">
         <f t="shared" ref="C162:C184" si="20">G162+J162+M162+P162+S162+V162+Y162+AB162+AE162+AH162</f>
@@ -13112,10 +13112,10 @@
     </row>
     <row r="163" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="30" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C163" s="5">
         <f t="shared" si="20"/>
@@ -13184,10 +13184,10 @@
     </row>
     <row r="164" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="30" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C164" s="5">
         <f t="shared" si="20"/>
@@ -13256,10 +13256,10 @@
     </row>
     <row r="165" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="30" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C165" s="5">
         <f t="shared" si="20"/>
@@ -13328,10 +13328,10 @@
     </row>
     <row r="166" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="30" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C166" s="5">
         <f t="shared" si="20"/>
@@ -13400,10 +13400,10 @@
     </row>
     <row r="167" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C167" s="5">
         <f t="shared" si="20"/>
@@ -13472,10 +13472,10 @@
     </row>
     <row r="168" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C168" s="5">
         <f t="shared" si="20"/>
@@ -13544,10 +13544,10 @@
     </row>
     <row r="169" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C169" s="5">
         <f t="shared" si="20"/>
@@ -13616,10 +13616,10 @@
     </row>
     <row r="170" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C170" s="5">
         <f t="shared" si="20"/>
@@ -13688,10 +13688,10 @@
     </row>
     <row r="171" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C171" s="5">
         <f t="shared" si="20"/>
@@ -13760,10 +13760,10 @@
     </row>
     <row r="172" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C172" s="5">
         <f t="shared" si="20"/>
@@ -13832,10 +13832,10 @@
     </row>
     <row r="173" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C173" s="5">
         <f t="shared" si="20"/>
@@ -13904,10 +13904,10 @@
     </row>
     <row r="174" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C174" s="5">
         <f t="shared" si="20"/>
@@ -13976,10 +13976,10 @@
     </row>
     <row r="175" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C175" s="5">
         <f t="shared" si="20"/>
@@ -14048,10 +14048,10 @@
     </row>
     <row r="176" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C176" s="5">
         <f t="shared" si="20"/>
@@ -14120,10 +14120,10 @@
     </row>
     <row r="177" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C177" s="5">
         <f t="shared" si="20"/>
@@ -14192,10 +14192,10 @@
     </row>
     <row r="178" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C178" s="5">
         <f t="shared" si="20"/>
@@ -14264,10 +14264,10 @@
     </row>
     <row r="179" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C179" s="12">
         <f t="shared" si="20"/>
@@ -14334,10 +14334,10 @@
     </row>
     <row r="180" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C180" s="5">
         <f t="shared" si="20"/>
@@ -14404,10 +14404,10 @@
     </row>
     <row r="181" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C181" s="12">
         <f t="shared" si="20"/>
@@ -14474,10 +14474,10 @@
     </row>
     <row r="182" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C182" s="12">
         <f t="shared" si="20"/>
@@ -14544,10 +14544,10 @@
     </row>
     <row r="183" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C183" s="5">
         <f t="shared" si="20"/>
@@ -14616,10 +14616,10 @@
     </row>
     <row r="184" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C184" s="5">
         <f t="shared" si="20"/>
